--- a/GeckoAdminServer/src/main/resources/excel/地区税率模板.xlsx
+++ b/GeckoAdminServer/src/main/resources/excel/地区税率模板.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="北京" sheetId="1" r:id="rId1"/>
+    <sheet name="请先给城市命名（必填）" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>职工社保公积金缴费比例</t>
   </si>
@@ -55,21 +55,6 @@
     <t>生育保险</t>
   </si>
   <si>
-    <t>大病医疗</t>
-  </si>
-  <si>
-    <t>3元</t>
-  </si>
-  <si>
-    <t>残疾人保障金</t>
-  </si>
-  <si>
-    <t>补充工伤保险</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
     <t>公积金</t>
   </si>
 </sst>
@@ -78,21 +63,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -114,83 +92,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -203,89 +198,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,7 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,97 +383,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,79 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +546,80 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,280 +647,194 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1261,169 +1200,97 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
-        <v>3082</v>
-      </c>
-      <c r="C4" s="8">
-        <v>23118</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.08</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9">
-        <v>0.008</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.002</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.02</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <v>0.003</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9">
-        <v>0.008</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
-    <row r="10" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9">
-        <f>SUM(D4:D11)</f>
-        <v>0.309</v>
-      </c>
-      <c r="E12" s="9">
-        <f>SUM(E4:E11)</f>
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2273</v>
-      </c>
-      <c r="C13" s="3">
-        <v>23118</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.12</v>
-      </c>
-    </row>
+    <row r="10" ht="24.75" customHeight="1"/>
+    <row r="11" ht="24.75" customHeight="1"/>
+    <row r="12" ht="24.75" customHeight="1"/>
+    <row r="13" ht="24.75" customHeight="1"/>
     <row r="14" ht="24.75" customHeight="1"/>
     <row r="15" ht="24.75" customHeight="1"/>
     <row r="16" ht="24.75" customHeight="1"/>
@@ -1438,10 +1305,6 @@
     <row r="25" ht="24.75" customHeight="1"/>
     <row r="26" ht="24.75" customHeight="1"/>
     <row r="27" ht="24.75" customHeight="1"/>
-    <row r="28" ht="24.75" customHeight="1"/>
-    <row r="29" ht="24.75" customHeight="1"/>
-    <row r="30" ht="24.75" customHeight="1"/>
-    <row r="31" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
